--- a/Data/suppliers.xlsx
+++ b/Data/suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Downloads\BA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEDF048-AAFF-4DF7-B855-28849EDB7D2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F5DCC-42F5-4BD5-A230-C3536C59E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5175" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,8 +888,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="suppliers" displayName="suppliers" ref="A1:L30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="SupplierID" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="CompanyName" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="CompanyName" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="SupplierID" queryTableFieldId="2" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="ContactName" queryTableFieldId="3" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="ContactTitle" queryTableFieldId="4" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Address" queryTableFieldId="5" dataDxfId="7"/>
@@ -1204,7 +1204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1223,10 +1225,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>242</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
